--- a/английские слова.xlsx
+++ b/английские слова.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Рабочий стол\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EA685C-AC23-405B-B35A-F6F96BBD0D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B562EF8-52E6-4D03-93B8-4F18B9C501EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3958" uniqueCount="2569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="2647">
   <si>
     <t>перевод</t>
   </si>
@@ -7732,18 +7741,318 @@
   </si>
   <si>
     <t>поезд</t>
+  </si>
+  <si>
+    <t>happen to</t>
+  </si>
+  <si>
+    <t>случаться с (кем-либо)</t>
+  </si>
+  <si>
+    <t>come to</t>
+  </si>
+  <si>
+    <t>приходить (куда-либо)</t>
+  </si>
+  <si>
+    <t>What time</t>
+  </si>
+  <si>
+    <t>Устойчивые выражения</t>
+  </si>
+  <si>
+    <t>as soon as possible</t>
+  </si>
+  <si>
+    <t>как можно скорее</t>
+  </si>
+  <si>
+    <t>in English</t>
+  </si>
+  <si>
+    <t>на английском</t>
+  </si>
+  <si>
+    <t>Во сколько/В какое время</t>
+  </si>
+  <si>
+    <t>at first sight</t>
+  </si>
+  <si>
+    <t>с первого взгляда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">believe in </t>
+  </si>
+  <si>
+    <t>верить в (что-либо)</t>
+  </si>
+  <si>
+    <t>each other</t>
+  </si>
+  <si>
+    <t>друг друга</t>
+  </si>
+  <si>
+    <t>I would like to</t>
+  </si>
+  <si>
+    <t>Я хотел бы</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">waste </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>мест</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> time on</t>
+    </r>
+  </si>
+  <si>
+    <t>тратить впустую (чье-либо) время на</t>
+  </si>
+  <si>
+    <t>all the time</t>
+  </si>
+  <si>
+    <t>все время (всегда)</t>
+  </si>
+  <si>
+    <t>Пример</t>
+  </si>
+  <si>
+    <t>они жалуются на это все время</t>
+  </si>
+  <si>
+    <t>Вопросительные слова и конструкции</t>
+  </si>
+  <si>
+    <t>in public</t>
+  </si>
+  <si>
+    <t>на публике</t>
+  </si>
+  <si>
+    <t>wait for</t>
+  </si>
+  <si>
+    <t>ждать кого(что)-либо</t>
+  </si>
+  <si>
+    <t>first of all</t>
+  </si>
+  <si>
+    <t>Прежде всего/в первую очередь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more often </t>
+  </si>
+  <si>
+    <t>чаще</t>
+  </si>
+  <si>
+    <t>talk on the phone</t>
+  </si>
+  <si>
+    <t>разговаривать по телефону</t>
+  </si>
+  <si>
+    <t>at the same time</t>
+  </si>
+  <si>
+    <t>В то же самое время/ Одновременно</t>
+  </si>
+  <si>
+    <t>the only right</t>
+  </si>
+  <si>
+    <t>единственное правильное (решение)</t>
+  </si>
+  <si>
+    <t>solution to this problem</t>
+  </si>
+  <si>
+    <t>решение этой проблемы</t>
+  </si>
+  <si>
+    <t>practise sport</t>
+  </si>
+  <si>
+    <t>заниматься спортом</t>
+  </si>
+  <si>
+    <t>each of us</t>
+  </si>
+  <si>
+    <t>каждый из нас</t>
+  </si>
+  <si>
+    <t>in a couple of minutes</t>
+  </si>
+  <si>
+    <t>через несколько минут</t>
+  </si>
+  <si>
+    <t>as always</t>
+  </si>
+  <si>
+    <t>как всегда</t>
+  </si>
+  <si>
+    <t>as usual</t>
+  </si>
+  <si>
+    <t>как обычно</t>
+  </si>
+  <si>
+    <t>several times</t>
+  </si>
+  <si>
+    <t>несколько раз</t>
+  </si>
+  <si>
+    <t>hope for the best</t>
+  </si>
+  <si>
+    <t>надеяться на лучшее</t>
+  </si>
+  <si>
+    <t>sooner or later</t>
+  </si>
+  <si>
+    <t>рано или поздно</t>
+  </si>
+  <si>
+    <t>most of all</t>
+  </si>
+  <si>
+    <t>больше всего</t>
+  </si>
+  <si>
+    <t>keep in touch with</t>
+  </si>
+  <si>
+    <t>поддерживать связь с кем-то</t>
+  </si>
+  <si>
+    <t>laught at</t>
+  </si>
+  <si>
+    <t>смеяться над</t>
+  </si>
+  <si>
+    <t>prepare for</t>
+  </si>
+  <si>
+    <t>готовиться к чему-либо</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">try to do </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">мест </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>best</t>
+    </r>
+  </si>
+  <si>
+    <t>стараться сделать все возможное</t>
+  </si>
+  <si>
+    <t>lose touch with</t>
+  </si>
+  <si>
+    <t>терять связь с кем-то</t>
+  </si>
+  <si>
+    <t>every time</t>
+  </si>
+  <si>
+    <t>каждый раз</t>
+  </si>
+  <si>
+    <t>belong to</t>
+  </si>
+  <si>
+    <t>принадлежать чему(кому)-либо</t>
+  </si>
+  <si>
+    <t>depend on</t>
+  </si>
+  <si>
+    <t>зависеть от</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divide into </t>
+  </si>
+  <si>
+    <t>делить на</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7767,8 +8076,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -8049,20 +8361,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1320"/>
+  <dimension ref="A1:L1320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1307" zoomScale="175" workbookViewId="0">
-      <selection activeCell="B1315" sqref="B1315"/>
+    <sheetView tabSelected="1" topLeftCell="A1252" zoomScale="175" workbookViewId="0">
+      <selection activeCell="E1259" sqref="E1259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="11" max="11" width="34.44140625" customWidth="1"/>
+    <col min="12" max="12" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -8072,8 +8391,19 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -8083,8 +8413,20 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2579</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8094,8 +8436,14 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>2577</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8105,8 +8453,14 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>2580</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -8116,8 +8470,14 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>2584</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8127,8 +8487,14 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>2586</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8138,8 +8504,14 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -8149,8 +8521,17 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>2590</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2591</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -8160,8 +8541,14 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>2595</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -8171,8 +8558,14 @@
       <c r="C10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>2599</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -8182,8 +8575,14 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>2601</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -8193,16 +8592,28 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>2603</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>2605</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -8212,8 +8623,14 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>2607</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -8223,8 +8640,14 @@
       <c r="C15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>2609</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -8234,16 +8657,28 @@
       <c r="C16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>2611</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>2613</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -8253,8 +8688,14 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>2615</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -8264,8 +8705,14 @@
       <c r="C19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>2617</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -8275,8 +8722,14 @@
       <c r="C20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>2619</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -8286,8 +8739,14 @@
       <c r="C21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>2621</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -8297,8 +8756,14 @@
       <c r="C22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>2623</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -8308,8 +8773,14 @@
       <c r="C23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>2625</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -8319,8 +8790,14 @@
       <c r="C24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>2627</v>
+      </c>
+      <c r="K24" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -8330,8 +8807,14 @@
       <c r="C25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>2629</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -8341,8 +8824,14 @@
       <c r="C26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>2637</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -8352,8 +8841,14 @@
       <c r="C27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>2635</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -8363,8 +8858,14 @@
       <c r="C28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>2639</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -8375,7 +8876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -8386,7 +8887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -8397,7 +8898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -8936,7 +9437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -8947,7 +9448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>166</v>
       </c>
@@ -8958,7 +9459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>167</v>
       </c>
@@ -8969,7 +9470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>168</v>
       </c>
@@ -8980,7 +9481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -8991,7 +9492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -9002,7 +9503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -9013,7 +9514,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>172</v>
       </c>
@@ -9024,7 +9525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>173</v>
       </c>
@@ -9035,7 +9536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>183</v>
       </c>
@@ -9046,7 +9547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>184</v>
       </c>
@@ -9057,7 +9558,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>185</v>
       </c>
@@ -9068,7 +9569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>186</v>
       </c>
@@ -9079,7 +9580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -9089,8 +9590,14 @@
       <c r="C94" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>2569</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -9101,7 +9608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -11224,7 +11731,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>572</v>
       </c>
@@ -11235,7 +11742,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>573</v>
       </c>
@@ -11246,7 +11753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>574</v>
       </c>
@@ -11257,7 +11764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>575</v>
       </c>
@@ -11268,7 +11775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>585</v>
       </c>
@@ -11279,7 +11786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>586</v>
       </c>
@@ -11290,7 +11797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>587</v>
       </c>
@@ -11301,7 +11808,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>588</v>
       </c>
@@ -11312,7 +11819,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>589</v>
       </c>
@@ -11323,7 +11830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>590</v>
       </c>
@@ -11334,7 +11841,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>591</v>
       </c>
@@ -11345,7 +11852,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>592</v>
       </c>
@@ -11356,7 +11863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>593</v>
       </c>
@@ -11367,7 +11874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>594</v>
       </c>
@@ -11377,8 +11884,14 @@
       <c r="C302" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D302" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E302" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>605</v>
       </c>
@@ -11389,7 +11902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>606</v>
       </c>
@@ -13160,7 +13673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>922</v>
       </c>
@@ -13171,7 +13684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>923</v>
       </c>
@@ -13182,7 +13695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>924</v>
       </c>
@@ -13193,7 +13706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>925</v>
       </c>
@@ -13204,7 +13717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>926</v>
       </c>
@@ -13215,7 +13728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>927</v>
       </c>
@@ -13226,7 +13739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>928</v>
       </c>
@@ -13237,7 +13750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>929</v>
       </c>
@@ -13248,7 +13761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>940</v>
       </c>
@@ -13259,7 +13772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>885</v>
       </c>
@@ -13270,7 +13783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>941</v>
       </c>
@@ -13281,7 +13794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>942</v>
       </c>
@@ -13291,8 +13804,14 @@
       <c r="C476" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D476" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E476" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>763</v>
       </c>
@@ -13303,7 +13822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>943</v>
       </c>
@@ -13314,7 +13833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>944</v>
       </c>
@@ -13325,7 +13844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>945</v>
       </c>
@@ -13688,7 +14207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>1013</v>
       </c>
@@ -13699,7 +14218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1014</v>
       </c>
@@ -13710,7 +14229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1015</v>
       </c>
@@ -13720,8 +14239,14 @@
       <c r="C515" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D515" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E515" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>1016</v>
       </c>
@@ -13732,7 +14257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>1017</v>
       </c>
@@ -13743,7 +14268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>1018</v>
       </c>
@@ -13754,7 +14279,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1029</v>
       </c>
@@ -13765,7 +14290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>1030</v>
       </c>
@@ -13776,7 +14301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>1031</v>
       </c>
@@ -13787,7 +14312,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>1032</v>
       </c>
@@ -13798,7 +14323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1033</v>
       </c>
@@ -13809,7 +14334,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1034</v>
       </c>
@@ -13820,7 +14345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1035</v>
       </c>
@@ -13831,7 +14356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>1036</v>
       </c>
@@ -13842,7 +14367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1037</v>
       </c>
@@ -13853,7 +14378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1038</v>
       </c>
@@ -14040,7 +14565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>1074</v>
       </c>
@@ -14051,7 +14576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>1075</v>
       </c>
@@ -14062,7 +14587,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1076</v>
       </c>
@@ -14073,7 +14598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>1077</v>
       </c>
@@ -14084,7 +14609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>1088</v>
       </c>
@@ -14095,7 +14620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>1089</v>
       </c>
@@ -14106,7 +14631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>1090</v>
       </c>
@@ -14117,7 +14642,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1091</v>
       </c>
@@ -14128,7 +14653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1092</v>
       </c>
@@ -14139,7 +14664,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1093</v>
       </c>
@@ -14150,7 +14675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>1094</v>
       </c>
@@ -14161,7 +14686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1095</v>
       </c>
@@ -14172,7 +14697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>1096</v>
       </c>
@@ -14183,7 +14708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>1097</v>
       </c>
@@ -14194,7 +14719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1108</v>
       </c>
@@ -14204,8 +14729,14 @@
       <c r="C559" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D559" t="s">
+        <v>2631</v>
+      </c>
+      <c r="E559" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>1109</v>
       </c>
@@ -14392,7 +14923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>1135</v>
       </c>
@@ -14403,7 +14934,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>1038</v>
       </c>
@@ -14414,7 +14945,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>946</v>
       </c>
@@ -14425,7 +14956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>1146</v>
       </c>
@@ -14436,7 +14967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>1147</v>
       </c>
@@ -14447,7 +14978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>1148</v>
       </c>
@@ -14458,7 +14989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>1149</v>
       </c>
@@ -14469,7 +15000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>1150</v>
       </c>
@@ -14479,8 +15010,14 @@
       <c r="C584" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D584" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E584" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>1151</v>
       </c>
@@ -14491,7 +15028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1152</v>
       </c>
@@ -14502,7 +15039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>1153</v>
       </c>
@@ -14513,7 +15050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>848</v>
       </c>
@@ -14524,7 +15061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1164</v>
       </c>
@@ -14535,7 +15072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>1165</v>
       </c>
@@ -14546,7 +15083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>1166</v>
       </c>
@@ -14557,7 +15094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>1167</v>
       </c>
@@ -15096,7 +15633,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>1262</v>
       </c>
@@ -15107,7 +15644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1263</v>
       </c>
@@ -15118,7 +15655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>1264</v>
       </c>
@@ -15129,7 +15666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>1265</v>
       </c>
@@ -15140,7 +15677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>1266</v>
       </c>
@@ -15151,7 +15688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>673</v>
       </c>
@@ -15162,7 +15699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>995</v>
       </c>
@@ -15173,7 +15710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>1277</v>
       </c>
@@ -15184,7 +15721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1278</v>
       </c>
@@ -15195,7 +15732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1279</v>
       </c>
@@ -15206,7 +15743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1280</v>
       </c>
@@ -15217,7 +15754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1281</v>
       </c>
@@ -15228,7 +15765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1282</v>
       </c>
@@ -15238,8 +15775,14 @@
       <c r="C653" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D653" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E653" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>1283</v>
       </c>
@@ -15250,7 +15793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>1284</v>
       </c>
@@ -15261,7 +15804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>1285</v>
       </c>
@@ -18616,7 +19159,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="961" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
         <v>1875</v>
       </c>
@@ -18627,7 +19170,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
         <v>1876</v>
       </c>
@@ -18638,7 +19181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
         <v>1877</v>
       </c>
@@ -18649,7 +19192,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
         <v>1878</v>
       </c>
@@ -18660,7 +19203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
         <v>1879</v>
       </c>
@@ -18671,7 +19214,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="966" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
         <v>1880</v>
       </c>
@@ -18682,7 +19225,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="967" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
         <v>1881</v>
       </c>
@@ -18693,7 +19236,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="968" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
         <v>1892</v>
       </c>
@@ -18704,7 +19247,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="969" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
         <v>1893</v>
       </c>
@@ -18715,7 +19258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
         <v>1894</v>
       </c>
@@ -18726,7 +19269,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="971" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
         <v>1895</v>
       </c>
@@ -18737,7 +19280,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="972" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
         <v>1900</v>
       </c>
@@ -18748,7 +19291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="973" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
         <v>1901</v>
       </c>
@@ -18758,8 +19301,14 @@
       <c r="C973" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D973" t="s">
+        <v>2641</v>
+      </c>
+      <c r="E973" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
         <v>1902</v>
       </c>
@@ -18770,7 +19319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="975" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
         <v>1903</v>
       </c>
@@ -18781,7 +19330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
         <v>1904</v>
       </c>
@@ -21784,7 +22333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
         <v>2427</v>
       </c>
@@ -21795,7 +22344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
         <v>2428</v>
       </c>
@@ -21806,7 +22355,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="1251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1251" t="s">
         <v>2429</v>
       </c>
@@ -21817,7 +22366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1252" t="s">
         <v>2430</v>
       </c>
@@ -21828,7 +22377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1253" t="s">
         <v>2431</v>
       </c>
@@ -21839,7 +22388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
         <v>2432</v>
       </c>
@@ -21850,7 +22399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
         <v>2433</v>
       </c>
@@ -21861,7 +22410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1256" t="s">
         <v>2434</v>
       </c>
@@ -21872,7 +22421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
         <v>2435</v>
       </c>
@@ -21883,7 +22432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
         <v>2436</v>
       </c>
@@ -21894,7 +22443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
         <v>2437</v>
       </c>
@@ -21904,8 +22453,14 @@
       <c r="C1259" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="1260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1259" t="s">
+        <v>2645</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
         <v>2438</v>
       </c>
@@ -21916,7 +22471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
         <v>2439</v>
       </c>
@@ -21927,7 +22482,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="1262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1262" t="s">
         <v>2440</v>
       </c>
@@ -21938,7 +22493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="1263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1263" t="s">
         <v>2459</v>
       </c>
@@ -21949,7 +22504,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1264" t="s">
         <v>2460</v>
       </c>
@@ -22577,6 +23132,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/английские слова.xlsx
+++ b/английские слова.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Рабочий стол\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A22D610-FB0D-46E3-AE48-35C54E4AA1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09CF62E-CEBE-488E-89FE-277A78820F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Слова" sheetId="1" r:id="rId1"/>
     <sheet name="Устойчивые выражения" sheetId="2" r:id="rId2"/>
-    <sheet name="Разные правила" sheetId="3" r:id="rId3"/>
+    <sheet name="Времена" sheetId="4" r:id="rId3"/>
+    <sheet name="Разные правила" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5819" uniqueCount="3946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6017" uniqueCount="4116">
   <si>
     <t>перевод</t>
   </si>
@@ -11352,9 +11353,6 @@
     <t>until/till - взаимозаменяемы. Обозначают до (определенного момента, события)</t>
   </si>
   <si>
-    <t>in - в указывает на местоположение внутри чего-то, например, в комнате. Также употребляется с веками, годами, месяцами, сезонами. Когда говорим о времени суток. Когда речь идет о картине, фотографии и тп). Через какой-то промежуток времени.</t>
-  </si>
-  <si>
     <t xml:space="preserve">on - на (поверхности чего-то). Когда говорим про дни недели или дату. </t>
   </si>
   <si>
@@ -11947,6 +11945,564 @@
   </si>
   <si>
     <t>заснуть, уснуть</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Present Simple</t>
+  </si>
+  <si>
+    <t>often/usually/always ставится после местоимений</t>
+  </si>
+  <si>
+    <t>Если есть вопросительное слово или конструкция, она ставится перед do/does</t>
+  </si>
+  <si>
+    <t>I/We/You/They + глагол; 
+He/She/It + глагол + s; 
+I + am + ..; 
+We/You/They + are +..; 
+He/She/It + is +..;</t>
+  </si>
+  <si>
+    <t>I/We/You/They + don't + глагол; 
+He/She/It + doesn't + глагол;
+I + am + not ..; 
+We/You/They + are + not..; 
+He/She/It + is + not..;</t>
+  </si>
+  <si>
+    <t>Do + I/We/You/They + глагол…?; 
+Does + he/she/it + глагол ..?;
+Am + I + ...?;
+Are + We/You/They + ..?;
+Is + He/She/It + …?</t>
+  </si>
+  <si>
+    <t>Обладатель (апостроф)\: обладатель's + человек/вещь (friend's trainer)</t>
+  </si>
+  <si>
+    <t>После глаголов can, could, would, must следующий глагол ставится без каких-либо окончаний и предлогов</t>
+  </si>
+  <si>
+    <t>Future Simple</t>
+  </si>
+  <si>
+    <t>I/We/You/They/He/She/It + will + глагол;</t>
+  </si>
+  <si>
+    <t>I/We/You/They/He/She/It + will + not + глагол; (won't)</t>
+  </si>
+  <si>
+    <t>Will + I/We/You/They/He/She/It + глагол + ..?</t>
+  </si>
+  <si>
+    <t>Если есть вопросительное слово или конструкция, она ставится перед will</t>
+  </si>
+  <si>
+    <t>Past Simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С правильными глаголами:
+глагол + ed;
+С неправильными глаголами:
+глагол в третьей форме;
+С глаголом to be:
+I/He/She/It + was + …;
+We/You/They + were  + ..;
+</t>
+  </si>
+  <si>
+    <t>I/We/You/They/He/She/It + didn't + глагол…;
+С глаголом to be:
+I/He/She/It + wasn't + …;
+We/You/They + weren't  + ..;</t>
+  </si>
+  <si>
+    <t>Did + I/We/You/They/He/She/It + глагол + ..?
+С глаголом to be:
+Was + I/He/She/It  …;
+Were + We/You/They  ..;</t>
+  </si>
+  <si>
+    <t>Если после фразы с глаголом to be стоит любой предлог кроме to, то к следующему за ней глаголу добавляется окончание ing</t>
+  </si>
+  <si>
+    <t>They are keen on reading</t>
+  </si>
+  <si>
+    <t>После глагола enjoy, hate, like, love следующий глагол ставится с окончанием ing</t>
+  </si>
+  <si>
+    <t>Present Continuous</t>
+  </si>
+  <si>
+    <t>используется, чтобы сказать про действие, происходящее сейчас, в данный момент</t>
+  </si>
+  <si>
+    <t>I + am + глагол + ing;
+We/You/They + are + глагол + ing;
+He/She/It + is + глагол + ing</t>
+  </si>
+  <si>
+    <t>Am + I + глагол + ing; 
+Are + we/you/they + глагол + ing; 
+Is + he/she/it + глагол + ing; 
+Вопросительное слово/конструкция + am + I + глагол + ing (с другими местоимениями по аналогии);</t>
+  </si>
+  <si>
+    <t>I + am + not + глагол + ing;
+We/You/They + are + not +  глагол + ing;
+He/She/It + is + not +  глагол + ing</t>
+  </si>
+  <si>
+    <t>Past Continuous</t>
+  </si>
+  <si>
+    <t>I/He/She/It + was + глагол + ing; 
+We/You/They + were + глагол + ing;
+When + подлежащее + was/were + глагол+ing + … + подлежащее + was/were + глагол+ing;
+Подл + was/were + глагол+ing + yesterday + at two o'clock</t>
+  </si>
+  <si>
+    <t>В предложени есть два одновременно происходящих действия в прошедшем времени; Указано точное время или промежуток времени в прошлом, когда происходило действие; В предложении есть два действия в прошедшем времени, одно из которых прерывает другое;  В предложении есть фраза all day.</t>
+  </si>
+  <si>
+    <t>Present Perfect</t>
+  </si>
+  <si>
+    <t>I/We/You/They + haven't + 3я форма глагола + …;
+He/She/It + hasn't + 3я форма глагола + …;</t>
+  </si>
+  <si>
+    <t>I/We/You/They + have + just/already + 3я форма глагола + …;
+He/She/It + has + just/already + 3я форма глагола + …;</t>
+  </si>
+  <si>
+    <t>Используется, чтобы сказать про действия, которые уже завершились, но имеют некий результат в настоящем времени.
+Слова подсказки: already, never, ever, this, just, since, yet.</t>
+  </si>
+  <si>
+    <t>Have + I/We/You/They + ever + 3я форма глагола + ..?;
+Has + He/She/It + ever + 3я форма глагола + ..?;</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>already</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>yet</t>
+  </si>
+  <si>
+    <t>diploma</t>
+  </si>
+  <si>
+    <t>childhood</t>
+  </si>
+  <si>
+    <t>recover</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>injure</t>
+  </si>
+  <si>
+    <t>english-speaking</t>
+  </si>
+  <si>
+    <t>superstar</t>
+  </si>
+  <si>
+    <t>когда-либо</t>
+  </si>
+  <si>
+    <t>уже</t>
+  </si>
+  <si>
+    <t>местный</t>
+  </si>
+  <si>
+    <t>с, с тех пор как</t>
+  </si>
+  <si>
+    <t>диплом</t>
+  </si>
+  <si>
+    <t>детство</t>
+  </si>
+  <si>
+    <t>выздороветь</t>
+  </si>
+  <si>
+    <t>железо, гладить</t>
+  </si>
+  <si>
+    <t>повредить, ранить</t>
+  </si>
+  <si>
+    <t>англоговорящий</t>
+  </si>
+  <si>
+    <t>суперзвезда</t>
+  </si>
+  <si>
+    <t>Если есть вопросительное слово или конструкция, она ставится перед did/were/was; используется, чтобы сказать про действия, которые произошли в прошлом. Слова-подсказки: last; when;yesterday;ago;указание даты или времени</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>receptionist</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>lottery</t>
+  </si>
+  <si>
+    <t>sushi</t>
+  </si>
+  <si>
+    <t>секретарь в приемной</t>
+  </si>
+  <si>
+    <t>персонал, штат сотрудников</t>
+  </si>
+  <si>
+    <t>лотерея</t>
+  </si>
+  <si>
+    <t>суши</t>
+  </si>
+  <si>
+    <t>Present Perfect Continuous</t>
+  </si>
+  <si>
+    <t>I/We/You/They + have been + глагол + ing;
+He/She/It + has been + глагол + ing;</t>
+  </si>
+  <si>
+    <t>Употребляется для обозначения действия, начавшегося в прошлом и продолжающегося в настоящий момент.
+Слова-подсказки: for (в течение какого-то времени), since (с тех пор, как), lately (в последнее время), how long (как долго).</t>
+  </si>
+  <si>
+    <t>Вопросительное слово + have + I/We/You/They + been + глагол + ing;
+Вопросительное слово + has + He/She/It + been + глагол + ing;</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>lately</t>
+  </si>
+  <si>
+    <t>exhausted</t>
+  </si>
+  <si>
+    <t>engaged</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>библиотека</t>
+  </si>
+  <si>
+    <t>религия</t>
+  </si>
+  <si>
+    <t>в последнее время, недавно</t>
+  </si>
+  <si>
+    <t>измотанный, истощен</t>
+  </si>
+  <si>
+    <t>помолвлен, занято</t>
+  </si>
+  <si>
+    <t>Азия</t>
+  </si>
+  <si>
+    <t>Европа</t>
+  </si>
+  <si>
+    <t>for (в течение какого-то времени), since (с тех пор, как), lately (в последнее время), how long (как долго).</t>
+  </si>
+  <si>
+    <t>I/We/You/They + haven't been + глагол + ing;
+He/She/It + hasn't been + глагол + ing;</t>
+  </si>
+  <si>
+    <t>Past Perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">употребляется, чтобы сказать, что одно действие уже совершилось до определенного момента в прошлом. </t>
+  </si>
+  <si>
+    <t>… + I/We/You/They/He/She/It + had + 3я форма глагола/глагол+ed + …;
+..I'd/We'd/You'd/They'd/He'd/She'd/It'd + already + 3я форма глагола + …</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>passport</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>donate</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>uploud</t>
+  </si>
+  <si>
+    <t>recently</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>announce</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>drown</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>preparation</t>
+  </si>
+  <si>
+    <t>stupidly</t>
+  </si>
+  <si>
+    <t>Latin America</t>
+  </si>
+  <si>
+    <t>девять</t>
+  </si>
+  <si>
+    <t>белый</t>
+  </si>
+  <si>
+    <t>красный</t>
+  </si>
+  <si>
+    <t>желтый</t>
+  </si>
+  <si>
+    <t>камера</t>
+  </si>
+  <si>
+    <t>паспорт</t>
+  </si>
+  <si>
+    <t>корабль, перевозить груз, грузить товары</t>
+  </si>
+  <si>
+    <t>скидка</t>
+  </si>
+  <si>
+    <t>жертвовать</t>
+  </si>
+  <si>
+    <t>оплата</t>
+  </si>
+  <si>
+    <t>загружать</t>
+  </si>
+  <si>
+    <t>недавно</t>
+  </si>
+  <si>
+    <t>вес</t>
+  </si>
+  <si>
+    <t>объявить, анонсировать</t>
+  </si>
+  <si>
+    <t>лодка</t>
+  </si>
+  <si>
+    <t>тонуть</t>
+  </si>
+  <si>
+    <t>тонуть, раковина</t>
+  </si>
+  <si>
+    <t>подготовка</t>
+  </si>
+  <si>
+    <t>глупо</t>
+  </si>
+  <si>
+    <t>Латинская Америка</t>
+  </si>
+  <si>
+    <t>by the time</t>
+  </si>
+  <si>
+    <t>к тому времени (сразу идет утверждение)</t>
+  </si>
+  <si>
+    <t>Future Continuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/We/You/They/He/She/It + will + be + глагол + ing +..;
+</t>
+  </si>
+  <si>
+    <t>употребляется для обозначения действий, которые будут происходить в будущем. Слово-подсказка: all day,</t>
+  </si>
+  <si>
+    <t>I/We/You/They/He/She/It + won't + be + глагол + ing +..;</t>
+  </si>
+  <si>
+    <t>Will + I/We/You/They/He/She/It + be  + глагол + ing ..?</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>petrol station</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>publish</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>briefly</t>
+  </si>
+  <si>
+    <t>forecast</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>confirmation</t>
+  </si>
+  <si>
+    <t>webinar</t>
+  </si>
+  <si>
+    <t>верх, топ, верхний</t>
+  </si>
+  <si>
+    <t>клик, нажать</t>
+  </si>
+  <si>
+    <t>объем, громкость</t>
+  </si>
+  <si>
+    <t>заправочная станция</t>
+  </si>
+  <si>
+    <t>капитал, столица</t>
+  </si>
+  <si>
+    <t>применять, обращаться</t>
+  </si>
+  <si>
+    <t>публиковать</t>
+  </si>
+  <si>
+    <t>ответ</t>
+  </si>
+  <si>
+    <t>кратко</t>
+  </si>
+  <si>
+    <t>прогноз, прогнозировать</t>
+  </si>
+  <si>
+    <t>обратная связь</t>
+  </si>
+  <si>
+    <t>подтверждение</t>
+  </si>
+  <si>
+    <t>вебинар</t>
+  </si>
+  <si>
+    <t>in - в указывает на местоположение внутри чего-то, например, в комнате. Также употребляется с веками, годами, месяцами, сезонами. Когда говорим о времени суток. Когда речь идет о картине, фотографии и тп). Через какой-то промежуток времени. В значении под солнцем.</t>
+  </si>
+  <si>
+    <t>turn up</t>
+  </si>
+  <si>
+    <t>увеличить</t>
+  </si>
+  <si>
+    <t>apply for</t>
+  </si>
+  <si>
+    <t>подать заявку на ..</t>
   </si>
 </sst>
 </file>
@@ -11996,7 +12552,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -12004,11 +12560,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -12016,8 +12652,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12299,10 +12971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1725"/>
+  <dimension ref="A1:J1782"/>
   <sheetViews>
-    <sheetView topLeftCell="A1705" zoomScale="123" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1726" sqref="C1726"/>
+    <sheetView topLeftCell="A1770" zoomScale="123" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1775" sqref="C1775:D1775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12333,10 +13005,10 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="13" t="s">
         <v>2585</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -12775,7 +13447,7 @@
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="E38" t="s">
         <v>3187</v>
@@ -12991,10 +13663,10 @@
         <v>24</v>
       </c>
       <c r="D56" t="s">
+        <v>3775</v>
+      </c>
+      <c r="E56" t="s">
         <v>3776</v>
-      </c>
-      <c r="E56" t="s">
-        <v>3777</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -13267,10 +13939,10 @@
         <v>24</v>
       </c>
       <c r="D80" t="s">
+        <v>3787</v>
+      </c>
+      <c r="E80" t="s">
         <v>3788</v>
-      </c>
-      <c r="E80" t="s">
-        <v>3789</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -16062,10 +16734,10 @@
         <v>24</v>
       </c>
       <c r="D324" t="s">
+        <v>3757</v>
+      </c>
+      <c r="E324" t="s">
         <v>3758</v>
-      </c>
-      <c r="E324" t="s">
-        <v>3759</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -17453,10 +18125,10 @@
         <v>24</v>
       </c>
       <c r="D445" t="s">
+        <v>3785</v>
+      </c>
+      <c r="E445" t="s">
         <v>3786</v>
-      </c>
-      <c r="E445" t="s">
-        <v>3787</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
@@ -17774,10 +18446,10 @@
         <v>24</v>
       </c>
       <c r="D472" t="s">
+        <v>3780</v>
+      </c>
+      <c r="E472" t="s">
         <v>3781</v>
-      </c>
-      <c r="E472" t="s">
-        <v>3782</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
@@ -20641,7 +21313,7 @@
         <v>1408</v>
       </c>
       <c r="B719" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="C719" t="s">
         <v>24</v>
@@ -20730,7 +21402,7 @@
         <v>1415</v>
       </c>
       <c r="B726" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="C726" t="s">
         <v>24</v>
@@ -27502,11 +28174,11 @@
       </c>
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1321" s="3" t="s">
+      <c r="A1321" s="14" t="s">
         <v>2687</v>
       </c>
-      <c r="B1321" s="2"/>
-      <c r="C1321" s="2"/>
+      <c r="B1321" s="13"/>
+      <c r="C1321" s="13"/>
     </row>
     <row r="1322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1322" t="s">
@@ -28037,7 +28709,7 @@
         <v>24</v>
       </c>
       <c r="D1368" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1369" spans="1:4" x14ac:dyDescent="0.3">
@@ -28074,11 +28746,11 @@
       </c>
     </row>
     <row r="1372" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1372" s="3" t="s">
+      <c r="A1372" s="14" t="s">
         <v>2865</v>
       </c>
-      <c r="B1372" s="2"/>
-      <c r="C1372" s="2"/>
+      <c r="B1372" s="13"/>
+      <c r="C1372" s="13"/>
     </row>
     <row r="1373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1373" t="s">
@@ -31533,10 +32205,10 @@
     </row>
     <row r="1657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1657" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="B1657" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="C1657" t="s">
         <v>162</v>
@@ -31544,10 +32216,10 @@
     </row>
     <row r="1658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1658" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B1658" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="C1658" t="s">
         <v>25</v>
@@ -31555,10 +32227,10 @@
     </row>
     <row r="1659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1659" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B1659" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="C1659" t="s">
         <v>199</v>
@@ -31566,10 +32238,10 @@
     </row>
     <row r="1660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1660" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="B1660" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="C1660" t="s">
         <v>25</v>
@@ -31577,10 +32249,10 @@
     </row>
     <row r="1661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1661" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="B1661" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="C1661" t="s">
         <v>162</v>
@@ -31588,10 +32260,10 @@
     </row>
     <row r="1662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1662" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="B1662" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="C1662" t="s">
         <v>25</v>
@@ -31599,16 +32271,16 @@
     </row>
     <row r="1663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1663" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="B1663" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="C1663" t="s">
         <v>24</v>
       </c>
       <c r="D1663" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="E1663" t="s">
         <v>1020</v>
@@ -31616,10 +32288,10 @@
     </row>
     <row r="1664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1664" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="B1664" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="C1664" t="s">
         <v>25</v>
@@ -31627,10 +32299,10 @@
     </row>
     <row r="1665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1665" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="B1665" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="C1665" t="s">
         <v>25</v>
@@ -31638,10 +32310,10 @@
     </row>
     <row r="1666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1666" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="B1666" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="C1666" t="s">
         <v>24</v>
@@ -31649,10 +32321,10 @@
     </row>
     <row r="1667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1667" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="B1667" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="C1667" t="s">
         <v>24</v>
@@ -31660,10 +32332,10 @@
     </row>
     <row r="1668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1668" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="B1668" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="C1668" t="s">
         <v>25</v>
@@ -31671,10 +32343,10 @@
     </row>
     <row r="1669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1669" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="B1669" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="C1669" t="s">
         <v>25</v>
@@ -31682,10 +32354,10 @@
     </row>
     <row r="1670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1670" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="B1670" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="C1670" t="s">
         <v>24</v>
@@ -31693,10 +32365,10 @@
     </row>
     <row r="1671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1671" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="B1671" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="C1671" t="s">
         <v>24</v>
@@ -31704,10 +32376,10 @@
     </row>
     <row r="1672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1672" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="B1672" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="C1672" t="s">
         <v>25</v>
@@ -31715,10 +32387,10 @@
     </row>
     <row r="1673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1673" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B1673" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="C1673" t="s">
         <v>25</v>
@@ -31726,10 +32398,10 @@
     </row>
     <row r="1674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1674" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B1674" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="C1674" t="s">
         <v>26</v>
@@ -31737,10 +32409,10 @@
     </row>
     <row r="1675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1675" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="B1675" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="C1675" t="s">
         <v>24</v>
@@ -31748,10 +32420,10 @@
     </row>
     <row r="1676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1676" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="B1676" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="C1676" t="s">
         <v>25</v>
@@ -31759,10 +32431,10 @@
     </row>
     <row r="1677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1677" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="B1677" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="C1677" t="s">
         <v>241</v>
@@ -31770,10 +32442,10 @@
     </row>
     <row r="1678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1678" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="B1678" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="C1678" t="s">
         <v>25</v>
@@ -31781,10 +32453,10 @@
     </row>
     <row r="1679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1679" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="B1679" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="C1679" t="s">
         <v>24</v>
@@ -31792,10 +32464,10 @@
     </row>
     <row r="1680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1680" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="B1680" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="C1680" t="s">
         <v>25</v>
@@ -31803,10 +32475,10 @@
     </row>
     <row r="1681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1681" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="B1681" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="C1681" t="s">
         <v>25</v>
@@ -31814,7 +32486,7 @@
     </row>
     <row r="1682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1682" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="B1682" t="s">
         <v>1448</v>
@@ -31825,10 +32497,10 @@
     </row>
     <row r="1683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1683" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="B1683" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="C1683" t="s">
         <v>25</v>
@@ -31836,10 +32508,10 @@
     </row>
     <row r="1684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1684" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="B1684" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="C1684" t="s">
         <v>25</v>
@@ -31847,10 +32519,10 @@
     </row>
     <row r="1685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1685" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="B1685" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="C1685" t="s">
         <v>25</v>
@@ -31858,7 +32530,7 @@
     </row>
     <row r="1686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1686" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="B1686" t="s">
         <v>2553</v>
@@ -31869,10 +32541,10 @@
     </row>
     <row r="1687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1687" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="B1687" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="C1687" t="s">
         <v>24</v>
@@ -31880,10 +32552,10 @@
     </row>
     <row r="1688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1688" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="B1688" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="C1688" t="s">
         <v>25</v>
@@ -31891,7 +32563,7 @@
     </row>
     <row r="1689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1689" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="B1689" t="s">
         <v>411</v>
@@ -31902,10 +32574,10 @@
     </row>
     <row r="1690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1690" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="B1690" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="C1690" t="s">
         <v>25</v>
@@ -31913,7 +32585,7 @@
     </row>
     <row r="1691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1691" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="B1691" t="s">
         <v>1501</v>
@@ -31924,10 +32596,10 @@
     </row>
     <row r="1692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1692" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="B1692" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="C1692" t="s">
         <v>25</v>
@@ -31935,10 +32607,10 @@
     </row>
     <row r="1693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1693" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="B1693" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="C1693" t="s">
         <v>25</v>
@@ -31946,10 +32618,10 @@
     </row>
     <row r="1694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1694" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="B1694" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="C1694" t="s">
         <v>24</v>
@@ -31957,10 +32629,10 @@
     </row>
     <row r="1695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1695" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="B1695" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="C1695" t="s">
         <v>25</v>
@@ -31968,10 +32640,10 @@
     </row>
     <row r="1696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1696" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="B1696" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="C1696" t="s">
         <v>25</v>
@@ -31979,10 +32651,10 @@
     </row>
     <row r="1697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1697" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="B1697" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="C1697" t="s">
         <v>24</v>
@@ -31990,10 +32662,10 @@
     </row>
     <row r="1698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1698" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="B1698" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="C1698" t="s">
         <v>24</v>
@@ -32001,10 +32673,10 @@
     </row>
     <row r="1699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1699" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="B1699" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="C1699" t="s">
         <v>24</v>
@@ -32012,10 +32684,10 @@
     </row>
     <row r="1700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1700" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="B1700" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="C1700" t="s">
         <v>24</v>
@@ -32023,10 +32695,10 @@
     </row>
     <row r="1701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1701" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="B1701" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="C1701" t="s">
         <v>25</v>
@@ -32034,10 +32706,10 @@
     </row>
     <row r="1702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1702" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="B1702" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="C1702" t="s">
         <v>25</v>
@@ -32045,10 +32717,10 @@
     </row>
     <row r="1703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1703" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="B1703" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="C1703" t="s">
         <v>25</v>
@@ -32056,10 +32728,10 @@
     </row>
     <row r="1704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1704" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="B1704" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="C1704" t="s">
         <v>24</v>
@@ -32067,10 +32739,10 @@
     </row>
     <row r="1705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1705" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="B1705" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="C1705" t="s">
         <v>25</v>
@@ -32078,10 +32750,10 @@
     </row>
     <row r="1706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1706" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="B1706" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="C1706" t="s">
         <v>241</v>
@@ -32089,10 +32761,10 @@
     </row>
     <row r="1707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1707" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="B1707" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="C1707" t="s">
         <v>24</v>
@@ -32100,10 +32772,10 @@
     </row>
     <row r="1708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1708" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="B1708" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="C1708" t="s">
         <v>24</v>
@@ -32111,10 +32783,10 @@
     </row>
     <row r="1709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1709" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="B1709" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="C1709" t="s">
         <v>24</v>
@@ -32122,10 +32794,10 @@
     </row>
     <row r="1710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1710" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="B1710" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="C1710" t="s">
         <v>24</v>
@@ -32133,10 +32805,10 @@
     </row>
     <row r="1711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1711" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="B1711" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="C1711" t="s">
         <v>26</v>
@@ -32144,10 +32816,10 @@
     </row>
     <row r="1712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1712" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="B1712" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="C1712" t="s">
         <v>241</v>
@@ -32155,10 +32827,10 @@
     </row>
     <row r="1713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1713" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="B1713" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="C1713" t="s">
         <v>26</v>
@@ -32166,10 +32838,10 @@
     </row>
     <row r="1714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1714" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="B1714" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="C1714" t="s">
         <v>241</v>
@@ -32177,10 +32849,10 @@
     </row>
     <row r="1715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1715" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="B1715" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="C1715" t="s">
         <v>24</v>
@@ -32188,10 +32860,10 @@
     </row>
     <row r="1716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1716" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="B1716" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="C1716" t="s">
         <v>25</v>
@@ -32199,10 +32871,10 @@
     </row>
     <row r="1717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1717" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="B1717" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="C1717" t="s">
         <v>26</v>
@@ -32210,10 +32882,10 @@
     </row>
     <row r="1718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1718" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="B1718" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="C1718" t="s">
         <v>24</v>
@@ -32221,10 +32893,10 @@
     </row>
     <row r="1719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1719" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="B1719" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="C1719" t="s">
         <v>24</v>
@@ -32232,10 +32904,10 @@
     </row>
     <row r="1720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1720" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="B1720" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="C1720" t="s">
         <v>24</v>
@@ -32243,10 +32915,10 @@
     </row>
     <row r="1721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1721" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="B1721" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="C1721" t="s">
         <v>24</v>
@@ -32254,10 +32926,10 @@
     </row>
     <row r="1722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1722" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="B1722" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="C1722" t="s">
         <v>241</v>
@@ -32265,10 +32937,10 @@
     </row>
     <row r="1723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1723" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="B1723" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="C1723" t="s">
         <v>25</v>
@@ -32276,10 +32948,10 @@
     </row>
     <row r="1724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1724" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="B1724" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="C1724" t="s">
         <v>25</v>
@@ -32287,13 +32959,547 @@
     </row>
     <row r="1725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1725" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="B1725" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="C1725" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1726" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>3994</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1727" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>3995</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1728" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>3996</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1729" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>3997</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1730" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1731" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>3998</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1732" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>3999</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1733" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>4000</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1734" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>4001</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1735" t="s">
+        <v>3991</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1736" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>4003</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1737" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1738" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1739" t="s">
+        <v>4007</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1740" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>4012</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1741" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>4013</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1742" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>4014</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1743" t="s">
+        <v>4019</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>4026</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1744" t="s">
+        <v>4020</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>4027</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1745" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>4028</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1746" t="s">
+        <v>4022</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>4029</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1747" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>4030</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1748" t="s">
+        <v>4024</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>4031</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1749" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>4032</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1750" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1751" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1752" t="s">
+        <v>4040</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1753" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1754" t="s">
+        <v>4042</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1755" t="s">
+        <v>4043</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1756" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1757" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1758" t="s">
+        <v>4046</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1759" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1760" t="s">
+        <v>4048</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1761" t="s">
+        <v>4049</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1762" t="s">
+        <v>4050</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1763" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1764" t="s">
+        <v>4052</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1765" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1766" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1767" t="s">
+        <v>4055</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1768" t="s">
+        <v>4056</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1769" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1770" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1771" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1772" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1773" t="s">
+        <v>4088</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1774" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1775" t="s">
+        <v>4090</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>4103</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>4114</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1776" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1777" t="s">
+        <v>4092</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1778" t="s">
+        <v>4093</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1779" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1780" t="s">
+        <v>4095</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1781" t="s">
+        <v>4096</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1782" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>4110</v>
       </c>
     </row>
   </sheetData>
@@ -32309,10 +33515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8038B748-9AF6-46C7-A829-1C856B16D926}">
-  <dimension ref="A2:G97"/>
+  <dimension ref="A2:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="92" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="92" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32325,17 +33531,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>2565</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="13"/>
       <c r="C2" t="s">
         <v>2583</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>3670</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -32650,10 +33856,10 @@
         <v>2629</v>
       </c>
       <c r="E25" t="s">
+        <v>3757</v>
+      </c>
+      <c r="F25" t="s">
         <v>3758</v>
-      </c>
-      <c r="F25" t="s">
-        <v>3759</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -32664,13 +33870,13 @@
         <v>2627</v>
       </c>
       <c r="E26" t="s">
+        <v>3775</v>
+      </c>
+      <c r="F26" t="s">
         <v>3776</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>3777</v>
-      </c>
-      <c r="G26" t="s">
-        <v>3778</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -32681,10 +33887,10 @@
         <v>2631</v>
       </c>
       <c r="E27" t="s">
+        <v>3778</v>
+      </c>
+      <c r="F27" t="s">
         <v>3779</v>
-      </c>
-      <c r="F27" t="s">
-        <v>3780</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -32709,10 +33915,10 @@
         <v>2640</v>
       </c>
       <c r="E29" t="s">
+        <v>3780</v>
+      </c>
+      <c r="F29" t="s">
         <v>3781</v>
-      </c>
-      <c r="F29" t="s">
-        <v>3782</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -32729,7 +33935,7 @@
         <v>1408</v>
       </c>
       <c r="F30" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -32743,7 +33949,7 @@
         <v>1415</v>
       </c>
       <c r="F31" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -32754,7 +33960,7 @@
         <v>2645</v>
       </c>
       <c r="E32" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="F32" t="s">
         <v>1020</v>
@@ -32782,10 +33988,10 @@
         <v>2652</v>
       </c>
       <c r="E34" t="s">
+        <v>3785</v>
+      </c>
+      <c r="F34" t="s">
         <v>3786</v>
-      </c>
-      <c r="F34" t="s">
-        <v>3787</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -32796,10 +34002,10 @@
         <v>2656</v>
       </c>
       <c r="E35" t="s">
+        <v>3787</v>
+      </c>
+      <c r="F35" t="s">
         <v>3788</v>
-      </c>
-      <c r="F35" t="s">
-        <v>3789</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -32810,7 +34016,7 @@
         <v>2658</v>
       </c>
       <c r="E36" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="F36" t="s">
         <v>910</v>
@@ -32824,10 +34030,10 @@
         <v>2660</v>
       </c>
       <c r="E37" t="s">
+        <v>3791</v>
+      </c>
+      <c r="F37" t="s">
         <v>3792</v>
-      </c>
-      <c r="F37" t="s">
-        <v>3793</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -32838,10 +34044,10 @@
         <v>2664</v>
       </c>
       <c r="E38" t="s">
+        <v>3793</v>
+      </c>
+      <c r="F38" t="s">
         <v>3794</v>
-      </c>
-      <c r="F38" t="s">
-        <v>3795</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -32855,10 +34061,10 @@
         <v>2667</v>
       </c>
       <c r="E39" t="s">
+        <v>3795</v>
+      </c>
+      <c r="F39" t="s">
         <v>3796</v>
-      </c>
-      <c r="F39" t="s">
-        <v>3797</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -32869,10 +34075,10 @@
         <v>2669</v>
       </c>
       <c r="E40" t="s">
+        <v>3797</v>
+      </c>
+      <c r="F40" t="s">
         <v>3798</v>
-      </c>
-      <c r="F40" t="s">
-        <v>3799</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -32883,10 +34089,10 @@
         <v>2673</v>
       </c>
       <c r="E41" t="s">
+        <v>3799</v>
+      </c>
+      <c r="F41" t="s">
         <v>3800</v>
-      </c>
-      <c r="F41" t="s">
-        <v>3801</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -32897,10 +34103,10 @@
         <v>2684</v>
       </c>
       <c r="E42" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="F42" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -32911,10 +34117,10 @@
         <v>2691</v>
       </c>
       <c r="E43" t="s">
+        <v>3846</v>
+      </c>
+      <c r="F43" t="s">
         <v>3847</v>
-      </c>
-      <c r="F43" t="s">
-        <v>3848</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -32925,10 +34131,10 @@
         <v>2693</v>
       </c>
       <c r="E44" t="s">
+        <v>3943</v>
+      </c>
+      <c r="F44" t="s">
         <v>3944</v>
-      </c>
-      <c r="F44" t="s">
-        <v>3945</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -32938,6 +34144,12 @@
       <c r="B45" t="s">
         <v>2697</v>
       </c>
+      <c r="E45" t="s">
+        <v>4112</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4113</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -32946,6 +34158,12 @@
       <c r="B46" t="s">
         <v>2702</v>
       </c>
+      <c r="E46" t="s">
+        <v>4114</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4115</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -33301,18 +34519,18 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B91" t="s">
         <v>3825</v>
-      </c>
-      <c r="B91" t="s">
-        <v>3826</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B92" t="s">
         <v>3827</v>
-      </c>
-      <c r="B92" t="s">
-        <v>3828</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -33320,39 +34538,47 @@
         <v>2326</v>
       </c>
       <c r="B93" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B94" t="s">
         <v>3884</v>
-      </c>
-      <c r="B94" t="s">
-        <v>3885</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>3888</v>
+      </c>
+      <c r="B95" t="s">
         <v>3889</v>
-      </c>
-      <c r="B95" t="s">
-        <v>3890</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B96" t="s">
         <v>3891</v>
-      </c>
-      <c r="B96" t="s">
-        <v>3892</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B97" t="s">
         <v>3916</v>
       </c>
-      <c r="B97" t="s">
-        <v>3917</v>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4079</v>
       </c>
     </row>
   </sheetData>
@@ -33365,11 +34591,276 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B40312E-DF5D-47B5-A2F2-A79CB7EF6C7D}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3947</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3952</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3953</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>3957</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3958</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3960</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="117.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>3963</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>3965</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3971</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3973</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3972</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3975</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3979</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3978</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3981</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4015</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4016</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4034</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4018</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>4035</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4037</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4083</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>4084</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86DB15D-56A4-445B-8265-B9280F2D9969}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33379,10 +34870,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>2698</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -33419,10 +34910,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="13" t="s">
         <v>3373</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -33442,22 +34933,22 @@
     </row>
     <row r="10" spans="1:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3747</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -33472,70 +34963,103 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B20" t="s">
         <v>3849</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3850</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>3923</v>
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>4033</v>
       </c>
     </row>
   </sheetData>

--- a/английские слова.xlsx
+++ b/английские слова.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Рабочий стол\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09CF62E-CEBE-488E-89FE-277A78820F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C892DD-D8E4-4F7C-B526-E82EFADBD7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Слова" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6017" uniqueCount="4116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6088" uniqueCount="4185">
   <si>
     <t>перевод</t>
   </si>
@@ -12503,6 +12503,216 @@
   </si>
   <si>
     <t>подать заявку на ..</t>
+  </si>
+  <si>
+    <t>First Conditional</t>
+  </si>
+  <si>
+    <t>if/when + Present Simple + … + will + глагол;
+…+ will + глагол + … + if/when + Present Simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Первое уловное наклонение. Используется, когда мы говорим о планах на будущее, и выполнение этих планов реально. </t>
+  </si>
+  <si>
+    <t>nobody</t>
+  </si>
+  <si>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>barbecue</t>
+  </si>
+  <si>
+    <t>soaked</t>
+  </si>
+  <si>
+    <t>turn off</t>
+  </si>
+  <si>
+    <t>switch off</t>
+  </si>
+  <si>
+    <t>никто</t>
+  </si>
+  <si>
+    <t>если не, пока не</t>
+  </si>
+  <si>
+    <t>страхование</t>
+  </si>
+  <si>
+    <t>распечатать</t>
+  </si>
+  <si>
+    <t>довольный</t>
+  </si>
+  <si>
+    <t>барбекю</t>
+  </si>
+  <si>
+    <t>промокший</t>
+  </si>
+  <si>
+    <t>выключить</t>
+  </si>
+  <si>
+    <t>as soon as</t>
+  </si>
+  <si>
+    <t>как только,</t>
+  </si>
+  <si>
+    <t>in case</t>
+  </si>
+  <si>
+    <t>в случае, если ..</t>
+  </si>
+  <si>
+    <t>Passive Voice</t>
+  </si>
+  <si>
+    <t>Используется, когда есть действие, но нет его исполнителя, либо исполнитель указан в конце предложения</t>
+  </si>
+  <si>
+    <t>Подлежащее + am/is/are + 3я форма глагола;
+Подлежащее + was/were + 3я форма глагола;
+Подлежащее + will be + 3я форма глагола + ;</t>
+  </si>
+  <si>
+    <t>punish</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>vase</t>
+  </si>
+  <si>
+    <t>fewer</t>
+  </si>
+  <si>
+    <t>whereas</t>
+  </si>
+  <si>
+    <t>properly</t>
+  </si>
+  <si>
+    <t>hire</t>
+  </si>
+  <si>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>jewellery</t>
+  </si>
+  <si>
+    <t>robber</t>
+  </si>
+  <si>
+    <t>incorrectly</t>
+  </si>
+  <si>
+    <t>grammatically</t>
+  </si>
+  <si>
+    <t>наказывать</t>
+  </si>
+  <si>
+    <t>задержаться, задержка</t>
+  </si>
+  <si>
+    <t>повреждение, повреждать</t>
+  </si>
+  <si>
+    <t>растение, завод</t>
+  </si>
+  <si>
+    <t>ваза</t>
+  </si>
+  <si>
+    <t>в то время как</t>
+  </si>
+  <si>
+    <t>должным образом</t>
+  </si>
+  <si>
+    <t>нанимать</t>
+  </si>
+  <si>
+    <t>фотография, фотографировать</t>
+  </si>
+  <si>
+    <t>драгоценности</t>
+  </si>
+  <si>
+    <t>грабитель</t>
+  </si>
+  <si>
+    <t>неверно, неправильно</t>
+  </si>
+  <si>
+    <t>грамматически</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>bite</t>
+  </si>
+  <si>
+    <t>closely</t>
+  </si>
+  <si>
+    <t>unfairly</t>
+  </si>
+  <si>
+    <t>connected</t>
+  </si>
+  <si>
+    <t>praise</t>
+  </si>
+  <si>
+    <t>обращаться, лечить</t>
+  </si>
+  <si>
+    <t>игнорировать</t>
+  </si>
+  <si>
+    <t>укусить</t>
+  </si>
+  <si>
+    <t>тесно</t>
+  </si>
+  <si>
+    <t>несправедливо</t>
+  </si>
+  <si>
+    <t>связанный</t>
+  </si>
+  <si>
+    <t>хвалить</t>
+  </si>
+  <si>
+    <t>без предлога</t>
   </si>
 </sst>
 </file>
@@ -12644,7 +12854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -12683,13 +12893,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12971,10 +13184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1782"/>
+  <dimension ref="A1:J1812"/>
   <sheetViews>
-    <sheetView topLeftCell="A1770" zoomScale="123" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1775" sqref="C1775:D1775"/>
+    <sheetView tabSelected="1" topLeftCell="A1791" zoomScale="123" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D1809" sqref="D1809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13005,10 +13218,10 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>2585</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -28174,11 +28387,11 @@
       </c>
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1321" s="14" t="s">
+      <c r="A1321" s="15" t="s">
         <v>2687</v>
       </c>
-      <c r="B1321" s="13"/>
-      <c r="C1321" s="13"/>
+      <c r="B1321" s="14"/>
+      <c r="C1321" s="14"/>
     </row>
     <row r="1322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1322" t="s">
@@ -28746,11 +28959,11 @@
       </c>
     </row>
     <row r="1372" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1372" s="14" t="s">
+      <c r="A1372" s="15" t="s">
         <v>2865</v>
       </c>
-      <c r="B1372" s="13"/>
-      <c r="C1372" s="13"/>
+      <c r="B1372" s="14"/>
+      <c r="C1372" s="14"/>
     </row>
     <row r="1373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1373" t="s">
@@ -33500,6 +33713,249 @@
       </c>
       <c r="B1782" t="s">
         <v>4110</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1783" t="s">
+        <v>4119</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1784" t="s">
+        <v>4120</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1785" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1786" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1787" t="s">
+        <v>4123</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1788" t="s">
+        <v>4124</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1789" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1790" t="s">
+        <v>4126</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1791" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1792" t="s">
+        <v>4143</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1793" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1794" t="s">
+        <v>4145</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1795" t="s">
+        <v>4146</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1796" t="s">
+        <v>4147</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1797" t="s">
+        <v>4148</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1798" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1799" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1800" t="s">
+        <v>4151</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1801" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1802" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1803" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1804" t="s">
+        <v>4155</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1805" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1806" t="s">
+        <v>4170</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>4177</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1807" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1808" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1809" t="s">
+        <v>4173</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1810" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1811" t="s">
+        <v>4175</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1812" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>4183</v>
       </c>
     </row>
   </sheetData>
@@ -33517,8 +33973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8038B748-9AF6-46C7-A829-1C856B16D926}">
   <dimension ref="A2:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="92" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A37" zoomScale="92" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33531,17 +33987,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>2565</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
       <c r="C2" t="s">
         <v>2583</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>3670</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -34172,6 +34628,12 @@
       <c r="B47" t="s">
         <v>2704</v>
       </c>
+      <c r="E47" t="s">
+        <v>4136</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4137</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -34179,6 +34641,12 @@
       </c>
       <c r="B48" t="s">
         <v>2706</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4138</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4139</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -34592,10 +35060,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B40312E-DF5D-47B5-A2F2-A79CB7EF6C7D}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34750,7 +35218,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>4080</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -34766,89 +35234,108 @@
         <v>4082</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>4116</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4117</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4142</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>4141</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34870,10 +35357,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>2698</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -34910,10 +35397,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>3373</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
